--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\BackPropagation-Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F468FB6-18C9-4FE6-9E9F-46A7EF362EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B352EE5-C85C-4EA2-AE01-7A85AE83B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Epochs</t>
   </si>
@@ -10414,6 +10414,7 @@
         <c:crossAx val="491128543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11609,15 +11610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11649,16 +11650,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11949,20 +11950,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C401"/>
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11972,8 +11978,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11983,8 +12001,20 @@
       <c r="C2">
         <v>0.28269161355498701</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11995,7 +12025,7 @@
         <v>0.228126178030057</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12006,7 +12036,7 @@
         <v>0.18059976504421599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12017,7 +12047,7 @@
         <v>0.17540665408244599</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12028,7 +12058,7 @@
         <v>0.15151029022083501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12039,7 +12069,7 @@
         <v>0.13700324262309399</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12050,7 +12080,7 @@
         <v>0.170239606452702</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12061,7 +12091,7 @@
         <v>0.14089665543402999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12072,7 +12102,7 @@
         <v>0.13571974300585701</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12083,7 +12113,7 @@
         <v>0.124819770404137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12094,7 +12124,7 @@
         <v>0.123526890655123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12105,7 +12135,7 @@
         <v>0.124224423053579</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12116,7 +12146,7 @@
         <v>0.133200458421014</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12127,7 +12157,7 @@
         <v>0.11924916840269</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16381,10 +16411,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD9CBD-1493-4261-AEF6-2BEEDC92CDC4}">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
